--- a/database/masters/accn-seeder.xlsx
+++ b/database/masters/accn-seeder.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/backend.devsimasten/modules/system/database/masters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/backend.devsiruhay/modules/system/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7817EDD7-E963-5D43-8027-3C16B43A34DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD74A8CA-C8F6-5A42-9452-D04B556913EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="67">
   <si>
     <t>name</t>
   </si>
@@ -186,12 +186,6 @@
     <t>view, show</t>
   </si>
   <si>
-    <t>pegawai</t>
-  </si>
-  <si>
-    <t>superadmin, pegawai</t>
-  </si>
-  <si>
     <t>Tasklist</t>
   </si>
   <si>
@@ -223,18 +217,34 @@
   </si>
   <si>
     <t>supervised_user_circle</t>
+  </si>
+  <si>
+    <t>member</t>
+  </si>
+  <si>
+    <t>chairman</t>
+  </si>
+  <si>
+    <t>superadmin, member, chairman</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -294,16 +304,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -889,22 +900,22 @@
         <v>30</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="F7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="H7" s="3" t="b">
         <v>0</v>
@@ -921,22 +932,22 @@
         <v>30</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H8" s="3" t="b">
         <v>0</v>
@@ -953,22 +964,22 @@
         <v>30</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H9" s="3" t="b">
         <v>0</v>
@@ -1070,7 +1081,7 @@
         <v>30</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>51</v>
@@ -1081,7 +1092,7 @@
         <v>30</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>51</v>
@@ -1092,7 +1103,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>51</v>
@@ -1105,10 +1116,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1137,8 +1148,16 @@
       <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>53</v>
+      <c r="B3" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1151,7 +1170,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1178,8 +1197,8 @@
       <c r="B2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>54</v>
+      <c r="C2" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1189,8 +1208,8 @@
       <c r="B3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>54</v>
+      <c r="C3" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1200,8 +1219,8 @@
       <c r="B4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>54</v>
+      <c r="C4" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1211,8 +1230,8 @@
       <c r="B5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>54</v>
+      <c r="C5" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1222,8 +1241,8 @@
       <c r="B6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>54</v>
+      <c r="C6" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1231,10 +1250,10 @@
         <v>30</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="6" t="s">
         <v>54</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1242,10 +1261,10 @@
         <v>30</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1253,10 +1272,10 @@
         <v>30</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>54</v>
+        <v>61</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1269,7 +1288,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1300,8 +1319,8 @@
       <c r="B2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>54</v>
+      <c r="C2" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="D2" t="s">
         <v>28</v>
@@ -1314,8 +1333,8 @@
       <c r="B3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>54</v>
+      <c r="C3" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -1328,8 +1347,8 @@
       <c r="B4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>54</v>
+      <c r="C4" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
@@ -1342,8 +1361,8 @@
       <c r="B5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>54</v>
+      <c r="C5" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="D5" t="s">
         <v>28</v>
@@ -1356,8 +1375,8 @@
       <c r="B6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>54</v>
+      <c r="C6" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="D6" t="s">
         <v>28</v>
@@ -1368,10 +1387,10 @@
         <v>30</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="6" t="s">
         <v>54</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
@@ -1382,10 +1401,10 @@
         <v>30</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="D8" t="s">
         <v>28</v>
@@ -1396,10 +1415,10 @@
         <v>30</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>54</v>
+        <v>61</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>

--- a/database/masters/accn-seeder.xlsx
+++ b/database/masters/accn-seeder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/backend.devsiruhay/modules/system/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD74A8CA-C8F6-5A42-9452-D04B556913EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FB9D83-E6AA-8E4D-ABB4-605C9B90DF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="70">
   <si>
     <t>name</t>
   </si>
@@ -225,19 +225,35 @@
     <t>chairman</t>
   </si>
   <si>
-    <t>superadmin, member, chairman</t>
+    <t>committee-member</t>
+  </si>
+  <si>
+    <t>committee-chairman</t>
+  </si>
+  <si>
+    <t>administrator</t>
+  </si>
+  <si>
+    <t>superadmin, administrator, committee-member, committee-chairman, member, chairman</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -304,16 +320,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -685,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1116,16 +1133,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -1148,16 +1165,40 @@
       <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="8" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1170,13 +1211,13 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="39.83203125" customWidth="1"/>
+    <col min="3" max="3" width="77.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -1197,8 +1238,8 @@
       <c r="B2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>66</v>
+      <c r="C2" s="9" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1208,8 +1249,8 @@
       <c r="B3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>66</v>
+      <c r="C3" s="9" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1219,8 +1260,8 @@
       <c r="B4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>66</v>
+      <c r="C4" s="9" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1230,8 +1271,8 @@
       <c r="B5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>66</v>
+      <c r="C5" s="9" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1241,8 +1282,8 @@
       <c r="B6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>66</v>
+      <c r="C6" s="9" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1252,8 +1293,8 @@
       <c r="B7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>66</v>
+      <c r="C7" s="9" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1263,8 +1304,8 @@
       <c r="B8" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>66</v>
+      <c r="C8" s="9" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1274,8 +1315,8 @@
       <c r="B9" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>66</v>
+      <c r="C9" s="9" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1287,14 +1328,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="23.1640625" customWidth="1"/>
-    <col min="3" max="3" width="39.83203125" customWidth="1"/>
+    <col min="3" max="3" width="77.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1319,8 +1360,8 @@
       <c r="B2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>66</v>
+      <c r="C2" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="D2" t="s">
         <v>28</v>
@@ -1333,8 +1374,8 @@
       <c r="B3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>66</v>
+      <c r="C3" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -1347,8 +1388,8 @@
       <c r="B4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>66</v>
+      <c r="C4" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
@@ -1361,8 +1402,8 @@
       <c r="B5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>66</v>
+      <c r="C5" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="D5" t="s">
         <v>28</v>
@@ -1375,8 +1416,8 @@
       <c r="B6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>66</v>
+      <c r="C6" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="D6" t="s">
         <v>28</v>
@@ -1389,8 +1430,8 @@
       <c r="B7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>66</v>
+      <c r="C7" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
@@ -1403,8 +1444,8 @@
       <c r="B8" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>66</v>
+      <c r="C8" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="D8" t="s">
         <v>28</v>
@@ -1417,8 +1458,8 @@
       <c r="B9" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>66</v>
+      <c r="C9" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>

--- a/database/masters/accn-seeder.xlsx
+++ b/database/masters/accn-seeder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/backend.devsiruhay/modules/system/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FB9D83-E6AA-8E4D-ABB4-605C9B90DF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AD325A-C783-D345-BC2B-CA395545071C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="71">
   <si>
     <t>name</t>
   </si>
@@ -234,19 +234,29 @@
     <t>administrator</t>
   </si>
   <si>
-    <t>superadmin, administrator, committee-member, committee-chairman, member, chairman</t>
+    <t>speaker</t>
+  </si>
+  <si>
+    <t>superadmin, administrator, committee-member, committee-chairman, member, chairman, speaker</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -320,16 +330,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -702,7 +713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
@@ -1133,10 +1144,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1201,6 +1212,14 @@
         <v>67</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1210,14 +1229,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="77.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -1238,8 +1257,8 @@
       <c r="B2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>69</v>
+      <c r="C2" s="10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1249,8 +1268,8 @@
       <c r="B3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>69</v>
+      <c r="C3" s="10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1260,8 +1279,8 @@
       <c r="B4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>69</v>
+      <c r="C4" s="10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1271,8 +1290,8 @@
       <c r="B5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>69</v>
+      <c r="C5" s="10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1282,8 +1301,8 @@
       <c r="B6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>69</v>
+      <c r="C6" s="10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1293,8 +1312,8 @@
       <c r="B7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>69</v>
+      <c r="C7" s="10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1304,8 +1323,8 @@
       <c r="B8" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>69</v>
+      <c r="C8" s="10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1315,8 +1334,8 @@
       <c r="B9" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>69</v>
+      <c r="C9" s="10" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1329,13 +1348,13 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="23.1640625" customWidth="1"/>
-    <col min="3" max="3" width="77.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1360,8 +1379,8 @@
       <c r="B2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>69</v>
+      <c r="C2" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="D2" t="s">
         <v>28</v>
@@ -1374,8 +1393,8 @@
       <c r="B3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>69</v>
+      <c r="C3" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -1388,8 +1407,8 @@
       <c r="B4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>69</v>
+      <c r="C4" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
@@ -1402,8 +1421,8 @@
       <c r="B5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>69</v>
+      <c r="C5" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="D5" t="s">
         <v>28</v>
@@ -1416,8 +1435,8 @@
       <c r="B6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>69</v>
+      <c r="C6" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="D6" t="s">
         <v>28</v>
@@ -1430,8 +1449,8 @@
       <c r="B7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>69</v>
+      <c r="C7" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
@@ -1444,8 +1463,8 @@
       <c r="B8" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>69</v>
+      <c r="C8" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="D8" t="s">
         <v>28</v>
@@ -1458,8 +1477,8 @@
       <c r="B9" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>69</v>
+      <c r="C9" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>

--- a/database/masters/accn-seeder.xlsx
+++ b/database/masters/accn-seeder.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/backend.devsiruhay/modules/system/database/masters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/devsiruhay/modules/system/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AD325A-C783-D345-BC2B-CA395545071C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8D71F7-7D90-2344-A615-6FA51AF29B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="70">
   <si>
     <t>name</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>blue-grey</t>
-  </si>
-  <si>
-    <t>backend</t>
   </si>
   <si>
     <t>module</t>
@@ -623,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -671,25 +668,23 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>12</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="F2" s="6"/>
       <c r="G2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -701,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -733,13 +728,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -751,16 +746,16 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>7</v>
@@ -768,22 +763,22 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
         <v>20</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
       </c>
       <c r="H2" s="3" t="b">
         <v>1</v>
@@ -797,25 +792,25 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H3" s="3" t="b">
         <v>1</v>
@@ -829,25 +824,25 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H4" s="3" t="b">
         <v>1</v>
@@ -861,25 +856,25 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="D5" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H5" s="3" t="b">
         <v>1</v>
@@ -893,25 +888,25 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H6" s="3" t="b">
         <v>0</v>
@@ -925,25 +920,25 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="H7" s="3" t="b">
         <v>0</v>
@@ -957,25 +952,25 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H8" s="3" t="b">
         <v>0</v>
@@ -989,25 +984,25 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H9" s="3" t="b">
         <v>0</v>
@@ -1040,101 +1035,101 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1158,66 +1153,66 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1229,7 +1224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1241,101 +1236,101 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1360,128 +1355,128 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/database/masters/accn-seeder.xlsx
+++ b/database/masters/accn-seeder.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/devsiruhay/modules/system/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8D71F7-7D90-2344-A615-6FA51AF29B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9D851D-4916-0E41-9AB5-FA9B4310179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="65">
   <si>
     <t>name</t>
   </si>
@@ -216,44 +216,22 @@
     <t>supervised_user_circle</t>
   </si>
   <si>
-    <t>member</t>
-  </si>
-  <si>
-    <t>chairman</t>
-  </si>
-  <si>
-    <t>committee-member</t>
-  </si>
-  <si>
-    <t>committee-chairman</t>
-  </si>
-  <si>
     <t>administrator</t>
   </si>
   <si>
-    <t>speaker</t>
-  </si>
-  <si>
-    <t>superadmin, administrator, committee-member, committee-chairman, member, chairman, speaker</t>
+    <t>superadmin, administrator</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -327,17 +305,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -621,7 +598,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1139,10 +1116,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1171,48 +1148,8 @@
       <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="B3" s="8" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1225,13 +1162,13 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="85.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -1252,8 +1189,8 @@
       <c r="B2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>69</v>
+      <c r="C2" s="9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1263,8 +1200,8 @@
       <c r="B3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>69</v>
+      <c r="C3" s="9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1274,8 +1211,8 @@
       <c r="B4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>69</v>
+      <c r="C4" s="9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1285,8 +1222,8 @@
       <c r="B5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>69</v>
+      <c r="C5" s="9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1296,8 +1233,8 @@
       <c r="B6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>69</v>
+      <c r="C6" s="9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1307,8 +1244,8 @@
       <c r="B7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>69</v>
+      <c r="C7" s="9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1318,8 +1255,8 @@
       <c r="B8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>69</v>
+      <c r="C8" s="9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1329,8 +1266,8 @@
       <c r="B9" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>69</v>
+      <c r="C9" s="9" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1343,13 +1280,13 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="23.1640625" customWidth="1"/>
-    <col min="3" max="3" width="85.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1374,8 +1311,8 @@
       <c r="B2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>69</v>
+      <c r="C2" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="D2" t="s">
         <v>27</v>
@@ -1388,8 +1325,8 @@
       <c r="B3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>69</v>
+      <c r="C3" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
@@ -1402,8 +1339,8 @@
       <c r="B4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>69</v>
+      <c r="C4" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
@@ -1416,8 +1353,8 @@
       <c r="B5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>69</v>
+      <c r="C5" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
@@ -1430,8 +1367,8 @@
       <c r="B6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>69</v>
+      <c r="C6" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -1444,8 +1381,8 @@
       <c r="B7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>69</v>
+      <c r="C7" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -1458,8 +1395,8 @@
       <c r="B8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>69</v>
+      <c r="C8" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
@@ -1472,8 +1409,8 @@
       <c r="B9" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>69</v>
+      <c r="C9" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
